--- a/excell.xlsx
+++ b/excell.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>sno</t>
   </si>
@@ -45,6 +45,42 @@
   </si>
   <si>
     <t>africa</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>poland</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>switzerland</t>
+  </si>
+  <si>
+    <t>ukrain</t>
+  </si>
+  <si>
+    <t>russia</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>antartica</t>
+  </si>
+  <si>
+    <t>korea</t>
+  </si>
+  <si>
+    <t>taiwan</t>
   </si>
 </sst>
 </file>
@@ -1197,13 +1233,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1247,6 +1283,149 @@
       </c>
       <c r="C5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excell.xlsx
+++ b/excell.xlsx
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1406,15 +1406,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
